--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-01-ExcelAvancado1-Revisao-OperacoesMatematica.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-01-ExcelAvancado1-Revisao-OperacoesMatematica.xlsx
@@ -1,101 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EC82E-52F8-4DCE-B1AE-39B5614E0C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Operações Matemáticas Básicas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Operadores Aritméticos</t>
-  </si>
-  <si>
-    <t>Primeiro</t>
-  </si>
-  <si>
-    <t>Segundo</t>
-  </si>
-  <si>
-    <t>Explicação</t>
-  </si>
-  <si>
-    <t>Adição</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Subtração/Negação</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Multiplicação</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Divisão</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Potenciação/Exponenciação</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>Radiciação/Raiz Quadrada</t>
-  </si>
-  <si>
-    <t>^(1/Raiz)</t>
-  </si>
-  <si>
-    <t>Porcentagem</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Regra Básica: </t>
     </r>
     <r>
@@ -109,68 +102,94 @@
     </r>
   </si>
   <si>
+    <t>Operadores Aritméticos</t>
+  </si>
+  <si>
+    <t>Primeiro</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
     <t>Cálculo</t>
   </si>
   <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <t>Adição</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=D10+E10</t>
+  </si>
+  <si>
+    <t>Subtração/Negação</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=D11-E11</t>
+  </si>
+  <si>
+    <t>Multiplicação</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>=D12*E12</t>
+  </si>
+  <si>
+    <t>Divisão</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>=D13/E13</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
     <t>Vaamonde</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Robson Vaamonde
-LinkedIn: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Instagram: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.instagram.com/procedimentoem/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-YouTUBE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.youtube.com/boraparapratica</t>
-    </r>
+    <t>=D14</t>
+  </si>
+  <si>
+    <t>Potenciação/Exponenciação</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>=D15^E15</t>
+  </si>
+  <si>
+    <t>Radiciação/Raiz Quadrada</t>
+  </si>
+  <si>
+    <t>^(1/Raiz)</t>
+  </si>
+  <si>
+    <t>=D16^(1/2)</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>=D17*10%</t>
   </si>
   <si>
     <t>Usando operadores de cálculo em fórmulas do Excel</t>
@@ -182,15 +201,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -200,6 +228,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -207,11 +242,175 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -219,47 +418,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="63"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +428,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -296,88 +642,363 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
+    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
+    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
+    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
+    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
+    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
+    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
+    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
+    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
+    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
+    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
+    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
+    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
+    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
+    <cellStyle name="Saída" xfId="25" builtinId="21"/>
+    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
+    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
+    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Título" xfId="36" builtinId="15"/>
+    <cellStyle name="Observação" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
+    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
+    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
+    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
+    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
+    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -393,19 +1014,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0B6A30-E1AE-4B26-847D-7312EA97259E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -418,8 +1033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624923" y="183933"/>
-          <a:ext cx="877955" cy="894877"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="877570" cy="894715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -443,19 +1058,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3BFFA7-B180-4E7D-8946-37B9CA2E6E50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -468,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6859311" y="198783"/>
-          <a:ext cx="1581721" cy="898343"/>
+          <a:off x="7789545" y="196215"/>
+          <a:ext cx="1776095" cy="889635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,24 +1097,18 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203338</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>153643</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E884C6C-1A6A-4F68-9635-114820B267E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -518,8 +1121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="0"/>
-          <a:ext cx="4422913" cy="4678018"/>
+          <a:off x="9255125" y="0"/>
+          <a:ext cx="5031740" cy="4677410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,321 +1457,340 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.425" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.14166666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.7083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.2833333333333" style="3" customWidth="1"/>
+    <col min="8" max="17" width="9.14166666666667" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.14166666666667" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1">
-      <c r="B2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1"/>
-    <row r="8" spans="1:9" ht="15">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="B9" s="19" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:9">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:9">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:9">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" spans="2:9">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="G9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
         <v>10</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="14">
         <f>D10+E10</f>
         <v>20</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="G10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
         <f>D11-E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="G11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="14">
         <f>D12*E12</f>
         <v>100</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>100</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="14">
         <f>D13/E13</f>
         <v>0.1</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="6" t="str">
+      <c r="G13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="14" t="str">
         <f>D14</f>
         <v>Vaamonde</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="G14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
         <f>D15^E15</f>
         <v>10000000000</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="G15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8">
+      <c r="E16" s="11"/>
+      <c r="F16" s="15">
         <f>D16^(1/2)</f>
         <v>3</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" ht="15">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="G16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="16">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="14">
         <f>D17*10%</f>
         <v>1</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="20.25">
-      <c r="B19" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15">
+      <c r="G17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="19.5" spans="2:2">
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9"/>
-    <row r="22" spans="2:9"/>
-    <row r="23" spans="2:9"/>
-    <row r="24" spans="2:9"/>
-    <row r="25" spans="2:9"/>
-    <row r="26" spans="2:9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B2:I6"/>
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B2:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{BDB17703-72FE-4404-BFF7-CBF6FCE0EF57}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://support.microsoft.com/pt-br/office/usando-operadores-de-c%C3%A1lculo-em-f%C3%B3rmulas-do-excel-78be92ad-563c-4d62-b081-ae6da5c2ca69"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>